--- a/data/trans_dic/P62A$jubilacion-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,4; 92,92</t>
+          <t>87,64; 92,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,83; 87,47</t>
+          <t>80,92; 87,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,09; 93,44</t>
+          <t>88,08; 93,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,62; 61,14</t>
+          <t>51,05; 60,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,61; 41,78</t>
+          <t>32,75; 42,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,97; 41,11</t>
+          <t>32,5; 41,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,26; 44,77</t>
+          <t>33,88; 43,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,27; 28,8</t>
+          <t>22,13; 28,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,57; 68,82</t>
+          <t>62,4; 68,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>58,14; 64,06</t>
+          <t>57,87; 64,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,92; 68,69</t>
+          <t>62,17; 68,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,44; 42,1</t>
+          <t>36,07; 41,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,04; 88,52</t>
+          <t>77,92; 88,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,22; 66,53</t>
+          <t>53,94; 66,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,32; 79,2</t>
+          <t>69,86; 78,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,02; 50,03</t>
+          <t>40,87; 49,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,71; 43,17</t>
+          <t>23,14; 42,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,96; 33,12</t>
+          <t>18,95; 33,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,85; 51,38</t>
+          <t>38,48; 51,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,17; 86,24</t>
+          <t>31,21; 87,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,89; 71,81</t>
+          <t>60,17; 72,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42,41; 52,63</t>
+          <t>42,08; 52,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>58,9; 66,4</t>
+          <t>58,94; 66,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,56; 76,8</t>
+          <t>39,33; 76,9</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,98; 96,97</t>
+          <t>82,17; 97,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>62,54; 90,57</t>
+          <t>63,31; 90,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,39; 92,95</t>
+          <t>74,19; 93,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>54,79; 71,12</t>
+          <t>54,89; 71,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,93; 86,46</t>
+          <t>58,39; 85,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,55; 76,25</t>
+          <t>43,13; 76,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,14; 80,21</t>
+          <t>53,79; 78,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,63; 68,19</t>
+          <t>52,07; 69,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>76,09; 90,79</t>
+          <t>74,74; 90,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,13; 80,87</t>
+          <t>59,82; 81,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69,96; 85,47</t>
+          <t>69,2; 84,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,7; 68,09</t>
+          <t>56,64; 68,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,66; 91,18</t>
+          <t>86,54; 91,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>73,27; 79,37</t>
+          <t>73,2; 79,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,65; 85,85</t>
+          <t>80,86; 86,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,96; 55,5</t>
+          <t>48,76; 55,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,11; 43,37</t>
+          <t>35,09; 43,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,28; 39,46</t>
+          <t>32,27; 39,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,85; 47,44</t>
+          <t>39,0; 47,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,77; 73,64</t>
+          <t>30,77; 70,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,7; 69,99</t>
+          <t>64,44; 69,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54,74; 60,05</t>
+          <t>54,72; 60,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>62,9; 67,66</t>
+          <t>62,96; 67,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>41,92; 66,49</t>
+          <t>41,65; 65,1</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de jubilación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>462063</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>462631</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>401307</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>168200</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>167745</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>198832</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>166767</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96161</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>629808</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>661463</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>568074</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>264361</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>447440; 473854</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>444259; 480157</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>387959; 411569</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>152573; 182294</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>147348; 188935</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>174445; 222086</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>144163; 187190</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>83544; 108190</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>599322; 657886</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>628346; 695248</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>538372; 596950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>243964; 284017</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>139707</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>167132</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>289084</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>179423</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26956</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>43605</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>115410</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>295183</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>166663</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>210738</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>404494</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>474606</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>129840; 148119</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>148580; 182998</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>270738; 305492</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>160271; 196054</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19672; 36246</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>32346; 56576</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>99022; 131816</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>150972; 422540</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>151416; 182131</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>187733; 233687</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>380116; 429640</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>344446; 673574</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>55530</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36094</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>59363</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68683</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>30431</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21495</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36036</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44740</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>85960</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>57588</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>95399</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>113424</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>49849; 58894</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28886; 41463</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51418; 64832</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59467; 77268</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24078; 35222</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15343; 27294</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28388; 41606</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38517; 51281</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>76159; 92489</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>48577; 65955</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>84478; 103253</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>103265; 124726</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>657299</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>665857</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>749754</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>416308</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>225132</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>263932</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>318213</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>436084</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>882431</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>929789</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1067967</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>852391</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>638560; 673151</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>636929; 689792</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>725584; 773690</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>389792; 440321</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>202158; 248046</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>239760; 292369</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>286860; 345881</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>287804; 658728</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>846704; 915506</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>882591; 968882</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1028163; 1109884</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>722469; 1129292</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>